--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.41258458515025</v>
+        <v>0.178057</v>
       </c>
       <c r="N2">
-        <v>2.41258458515025</v>
+        <v>0.534171</v>
       </c>
       <c r="O2">
-        <v>0.2081504293220339</v>
+        <v>0.01072706596418309</v>
       </c>
       <c r="P2">
-        <v>0.2081504293220339</v>
+        <v>0.01486309420510698</v>
       </c>
       <c r="Q2">
-        <v>40.76602760631501</v>
+        <v>4.401887227858999</v>
       </c>
       <c r="R2">
-        <v>40.76602760631501</v>
+        <v>39.61698505073099</v>
       </c>
       <c r="S2">
-        <v>0.002238296297051961</v>
+        <v>0.0001438335851207563</v>
       </c>
       <c r="T2">
-        <v>0.002238296297051961</v>
+        <v>0.0002000317644655646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.177997250343781</v>
+        <v>2.509764</v>
       </c>
       <c r="N3">
-        <v>9.177997250343781</v>
+        <v>7.529292</v>
       </c>
       <c r="O3">
-        <v>0.791849570677966</v>
+        <v>0.1512010422647355</v>
       </c>
       <c r="P3">
-        <v>0.791849570677966</v>
+        <v>0.2094995353430986</v>
       </c>
       <c r="Q3">
-        <v>155.0828483200711</v>
+        <v>62.04585102826799</v>
       </c>
       <c r="R3">
-        <v>155.0828483200711</v>
+        <v>558.4126592544119</v>
       </c>
       <c r="S3">
-        <v>0.008514966640441414</v>
+        <v>0.002027375244595887</v>
       </c>
       <c r="T3">
-        <v>0.008514966640441414</v>
+        <v>0.002819504548050081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1339.72205469232</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>1339.72205469232</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.8525878247733181</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.8525878247733181</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.41258458515025</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N4">
-        <v>2.41258458515025</v>
+        <v>0.161677</v>
       </c>
       <c r="O4">
-        <v>0.2081504293220339</v>
+        <v>0.003246750280137314</v>
       </c>
       <c r="P4">
-        <v>0.2081504293220339</v>
+        <v>0.004498597793214309</v>
       </c>
       <c r="Q4">
-        <v>3232.192777536511</v>
+        <v>1.332314785599666</v>
       </c>
       <c r="R4">
-        <v>3232.192777536511</v>
+        <v>11.990833070397</v>
       </c>
       <c r="S4">
-        <v>0.1774665217613051</v>
+        <v>4.353396672894731E-05</v>
       </c>
       <c r="T4">
-        <v>0.1774665217613051</v>
+        <v>6.054341322067108E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1339.72205469232</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>1339.72205469232</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.8525878247733181</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.8525878247733181</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.177997250343781</v>
+        <v>13.8571405</v>
       </c>
       <c r="N5">
-        <v>9.177997250343781</v>
+        <v>27.714281</v>
       </c>
       <c r="O5">
-        <v>0.791849570677966</v>
+        <v>0.8348251414909441</v>
       </c>
       <c r="P5">
-        <v>0.791849570677966</v>
+        <v>0.7711387726585802</v>
       </c>
       <c r="Q5">
-        <v>12295.96533419103</v>
+        <v>342.5732758700734</v>
       </c>
       <c r="R5">
-        <v>12295.96533419103</v>
+        <v>2055.439655220441</v>
       </c>
       <c r="S5">
-        <v>0.6751213030120128</v>
+        <v>0.0111937312076303</v>
       </c>
       <c r="T5">
-        <v>0.6751213030120128</v>
+        <v>0.01037820572311951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H6">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I6">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J6">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.41258458515025</v>
+        <v>0.178057</v>
       </c>
       <c r="N6">
-        <v>2.41258458515025</v>
+        <v>0.534171</v>
       </c>
       <c r="O6">
-        <v>0.2081504293220339</v>
+        <v>0.01072706596418309</v>
       </c>
       <c r="P6">
-        <v>0.2081504293220339</v>
+        <v>0.01486309420510698</v>
       </c>
       <c r="Q6">
-        <v>132.3287430277024</v>
+        <v>259.6571374648497</v>
       </c>
       <c r="R6">
-        <v>132.3287430277024</v>
+        <v>2336.914237183646</v>
       </c>
       <c r="S6">
-        <v>0.007265631529586767</v>
+        <v>0.00848441022009723</v>
       </c>
       <c r="T6">
-        <v>0.007265631529586767</v>
+        <v>0.01179941072421205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.177997250343781</v>
+        <v>2.509764</v>
       </c>
       <c r="N7">
-        <v>9.177997250343781</v>
+        <v>7.529292</v>
       </c>
       <c r="O7">
-        <v>0.791849570677966</v>
+        <v>0.1512010422647355</v>
       </c>
       <c r="P7">
-        <v>0.791849570677966</v>
+        <v>0.2094995353430986</v>
       </c>
       <c r="Q7">
-        <v>503.4073611864948</v>
+        <v>3659.941119710716</v>
       </c>
       <c r="R7">
-        <v>503.4073611864948</v>
+        <v>32939.47007739644</v>
       </c>
       <c r="S7">
-        <v>0.02764004487594184</v>
+        <v>0.1195901724258642</v>
       </c>
       <c r="T7">
-        <v>0.02764004487594184</v>
+        <v>0.1663160463045055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>139.42070551673</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>139.42070551673</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.0887261619890026</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.0887261619890026</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.41258458515025</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N8">
-        <v>2.41258458515025</v>
+        <v>0.161677</v>
       </c>
       <c r="O8">
-        <v>0.2081504293220339</v>
+        <v>0.003246750280137314</v>
       </c>
       <c r="P8">
-        <v>0.2081504293220339</v>
+        <v>0.004498597793214309</v>
       </c>
       <c r="Q8">
-        <v>336.3642449804352</v>
+        <v>78.59016497320987</v>
       </c>
       <c r="R8">
-        <v>336.3642449804352</v>
+        <v>707.3114847588889</v>
       </c>
       <c r="S8">
-        <v>0.01846838871010721</v>
+        <v>0.002567967918802518</v>
       </c>
       <c r="T8">
-        <v>0.01846838871010721</v>
+        <v>0.003571315791494544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>139.42070551673</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>139.42070551673</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.0887261619890026</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.0887261619890026</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.177997250343781</v>
+        <v>13.8571405</v>
       </c>
       <c r="N9">
-        <v>9.177997250343781</v>
+        <v>27.714281</v>
       </c>
       <c r="O9">
-        <v>0.791849570677966</v>
+        <v>0.8348251414909441</v>
       </c>
       <c r="P9">
-        <v>0.791849570677966</v>
+        <v>0.7711387726585802</v>
       </c>
       <c r="Q9">
-        <v>1279.602851873538</v>
+        <v>20207.60450686148</v>
       </c>
       <c r="R9">
-        <v>1279.602851873538</v>
+        <v>121245.6270411689</v>
       </c>
       <c r="S9">
-        <v>0.07025777327889537</v>
+        <v>0.6602922911175818</v>
       </c>
       <c r="T9">
-        <v>0.07025777327889537</v>
+        <v>0.6121863306791764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.4702174927483</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H10">
-        <v>20.4702174927483</v>
+        <v>180.29937</v>
       </c>
       <c r="I10">
-        <v>0.01302707389465733</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J10">
-        <v>0.01302707389465733</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.41258458515025</v>
+        <v>0.178057</v>
       </c>
       <c r="N10">
-        <v>2.41258458515025</v>
+        <v>0.534171</v>
       </c>
       <c r="O10">
-        <v>0.2081504293220339</v>
+        <v>0.01072706596418309</v>
       </c>
       <c r="P10">
-        <v>0.2081504293220339</v>
+        <v>0.01486309420510698</v>
       </c>
       <c r="Q10">
-        <v>49.38613117767755</v>
+        <v>10.70118830803</v>
       </c>
       <c r="R10">
-        <v>49.38613117767755</v>
+        <v>96.31069477227</v>
       </c>
       <c r="S10">
-        <v>0.002711591023982783</v>
+        <v>0.0003496659954518894</v>
       </c>
       <c r="T10">
-        <v>0.002711591023982783</v>
+        <v>0.0004862863286424196</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>60.09979000000001</v>
+      </c>
+      <c r="H11">
+        <v>180.29937</v>
+      </c>
+      <c r="I11">
+        <v>0.03259661091107292</v>
+      </c>
+      <c r="J11">
+        <v>0.03271770480169137</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.509764</v>
+      </c>
+      <c r="N11">
+        <v>7.529292</v>
+      </c>
+      <c r="O11">
+        <v>0.1512010422647355</v>
+      </c>
+      <c r="P11">
+        <v>0.2094995353430986</v>
+      </c>
+      <c r="Q11">
+        <v>150.83628934956</v>
+      </c>
+      <c r="R11">
+        <v>1357.52660414604</v>
+      </c>
+      <c r="S11">
+        <v>0.004928641544052274</v>
+      </c>
+      <c r="T11">
+        <v>0.006854343953447008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>60.09979000000001</v>
+      </c>
+      <c r="H12">
+        <v>180.29937</v>
+      </c>
+      <c r="I12">
+        <v>0.03259661091107292</v>
+      </c>
+      <c r="J12">
+        <v>0.03271770480169137</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05389233333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.161677</v>
+      </c>
+      <c r="O12">
+        <v>0.003246750280137314</v>
+      </c>
+      <c r="P12">
+        <v>0.004498597793214309</v>
+      </c>
+      <c r="Q12">
+        <v>3.238917915943333</v>
+      </c>
+      <c r="R12">
+        <v>29.15026124349</v>
+      </c>
+      <c r="S12">
+        <v>0.000105833055607053</v>
+      </c>
+      <c r="T12">
+        <v>0.000147183794619926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>60.09979000000001</v>
+      </c>
+      <c r="H13">
+        <v>180.29937</v>
+      </c>
+      <c r="I13">
+        <v>0.03259661091107292</v>
+      </c>
+      <c r="J13">
+        <v>0.03271770480169137</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.8571405</v>
+      </c>
+      <c r="N13">
+        <v>27.714281</v>
+      </c>
+      <c r="O13">
+        <v>0.8348251414909441</v>
+      </c>
+      <c r="P13">
+        <v>0.7711387726585802</v>
+      </c>
+      <c r="Q13">
+        <v>832.811234050495</v>
+      </c>
+      <c r="R13">
+        <v>4996.86740430297</v>
+      </c>
+      <c r="S13">
+        <v>0.0272124703159617</v>
+      </c>
+      <c r="T13">
+        <v>0.02522989072498202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>280.168911</v>
+      </c>
+      <c r="H14">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I14">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J14">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.178057</v>
+      </c>
+      <c r="N14">
+        <v>0.534171</v>
+      </c>
+      <c r="O14">
+        <v>0.01072706596418309</v>
+      </c>
+      <c r="P14">
+        <v>0.01486309420510698</v>
+      </c>
+      <c r="Q14">
+        <v>49.88603578592701</v>
+      </c>
+      <c r="R14">
+        <v>448.974322073343</v>
+      </c>
+      <c r="S14">
+        <v>0.001630047977862931</v>
+      </c>
+      <c r="T14">
+        <v>0.002266934894946135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>280.168911</v>
+      </c>
+      <c r="H15">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I15">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J15">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.509764</v>
+      </c>
+      <c r="N15">
+        <v>7.529292</v>
+      </c>
+      <c r="O15">
+        <v>0.1512010422647355</v>
+      </c>
+      <c r="P15">
+        <v>0.2094995353430986</v>
+      </c>
+      <c r="Q15">
+        <v>703.1578467470041</v>
+      </c>
+      <c r="R15">
+        <v>6328.420620723036</v>
+      </c>
+      <c r="S15">
+        <v>0.02297598933551156</v>
+      </c>
+      <c r="T15">
+        <v>0.03195309136781813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>280.168911</v>
+      </c>
+      <c r="H16">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J16">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.05389233333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.161677</v>
+      </c>
+      <c r="O16">
+        <v>0.003246750280137314</v>
+      </c>
+      <c r="P16">
+        <v>0.004498597793214309</v>
+      </c>
+      <c r="Q16">
+        <v>15.098956341249</v>
+      </c>
+      <c r="R16">
+        <v>135.890607071241</v>
+      </c>
+      <c r="S16">
+        <v>0.0004933649840911339</v>
+      </c>
+      <c r="T16">
+        <v>0.0006861309075374859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>20.4702174927483</v>
-      </c>
-      <c r="H11">
-        <v>20.4702174927483</v>
-      </c>
-      <c r="I11">
-        <v>0.01302707389465733</v>
-      </c>
-      <c r="J11">
-        <v>0.01302707389465733</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>9.177997250343781</v>
-      </c>
-      <c r="N11">
-        <v>9.177997250343781</v>
-      </c>
-      <c r="O11">
-        <v>0.791849570677966</v>
-      </c>
-      <c r="P11">
-        <v>0.791849570677966</v>
-      </c>
-      <c r="Q11">
-        <v>187.8755998623831</v>
-      </c>
-      <c r="R11">
-        <v>187.8755998623831</v>
-      </c>
-      <c r="S11">
-        <v>0.01031548287067454</v>
-      </c>
-      <c r="T11">
-        <v>0.01031548287067454</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>280.168911</v>
+      </c>
+      <c r="H17">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J17">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.8571405</v>
+      </c>
+      <c r="N17">
+        <v>27.714281</v>
+      </c>
+      <c r="O17">
+        <v>0.8348251414909441</v>
+      </c>
+      <c r="P17">
+        <v>0.7711387726585802</v>
+      </c>
+      <c r="Q17">
+        <v>3882.339963458996</v>
+      </c>
+      <c r="R17">
+        <v>23294.03978075397</v>
+      </c>
+      <c r="S17">
+        <v>0.1268571516479977</v>
+      </c>
+      <c r="T17">
+        <v>0.1176149036305653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>20.472042</v>
+      </c>
+      <c r="H18">
+        <v>40.944084</v>
+      </c>
+      <c r="I18">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J18">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.178057</v>
+      </c>
+      <c r="N18">
+        <v>0.534171</v>
+      </c>
+      <c r="O18">
+        <v>0.01072706596418309</v>
+      </c>
+      <c r="P18">
+        <v>0.01486309420510698</v>
+      </c>
+      <c r="Q18">
+        <v>3.645190382394</v>
+      </c>
+      <c r="R18">
+        <v>21.871142294364</v>
+      </c>
+      <c r="S18">
+        <v>0.0001191081856502808</v>
+      </c>
+      <c r="T18">
+        <v>0.000110430492840806</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>20.472042</v>
+      </c>
+      <c r="H19">
+        <v>40.944084</v>
+      </c>
+      <c r="I19">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J19">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.509764</v>
+      </c>
+      <c r="N19">
+        <v>7.529292</v>
+      </c>
+      <c r="O19">
+        <v>0.1512010422647355</v>
+      </c>
+      <c r="P19">
+        <v>0.2094995353430986</v>
+      </c>
+      <c r="Q19">
+        <v>51.37999401808801</v>
+      </c>
+      <c r="R19">
+        <v>308.279964108528</v>
+      </c>
+      <c r="S19">
+        <v>0.001678863714711532</v>
+      </c>
+      <c r="T19">
+        <v>0.001556549169277887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>20.472042</v>
+      </c>
+      <c r="H20">
+        <v>40.944084</v>
+      </c>
+      <c r="I20">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J20">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05389233333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.161677</v>
+      </c>
+      <c r="O20">
+        <v>0.003246750280137314</v>
+      </c>
+      <c r="P20">
+        <v>0.004498597793214309</v>
+      </c>
+      <c r="Q20">
+        <v>1.103286111478</v>
+      </c>
+      <c r="R20">
+        <v>6.619716668868</v>
+      </c>
+      <c r="S20">
+        <v>3.605035490766149E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.342388634168272E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>20.472042</v>
+      </c>
+      <c r="H21">
+        <v>40.944084</v>
+      </c>
+      <c r="I21">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J21">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.8571405</v>
+      </c>
+      <c r="N21">
+        <v>27.714281</v>
+      </c>
+      <c r="O21">
+        <v>0.8348251414909441</v>
+      </c>
+      <c r="P21">
+        <v>0.7711387726585802</v>
+      </c>
+      <c r="Q21">
+        <v>283.683962315901</v>
+      </c>
+      <c r="R21">
+        <v>1134.735849263604</v>
+      </c>
+      <c r="S21">
+        <v>0.009269497201772605</v>
+      </c>
+      <c r="T21">
+        <v>0.005729441900737005</v>
       </c>
     </row>
   </sheetData>
